--- a/NEW HR/TAPAY, EDWARD.xlsx
+++ b/NEW HR/TAPAY, EDWARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>5/30,31/2023</t>
   </si>
 </sst>
 </file>
@@ -606,9 +609,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -618,17 +618,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,27 +836,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1074,27 +1077,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1159,7 +1162,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1205,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1269,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1329,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1395,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1458,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1556,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1615,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1680,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1723,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1798,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1984,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2050,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2108,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2174,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2230,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2305,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2348,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2414,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2470,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,25 +2566,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2593,25 +2596,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2967,68 +2970,68 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3061,18 +3064,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5310,17 +5313,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5358,7 +5361,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5380,68 +5383,68 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5474,18 +5477,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5542,7 +5545,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22.004000000000001</v>
+        <v>20.004000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5656,7 +5659,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="50" t="s">
+        <v>58</v>
+      </c>
       <c r="B15" s="21"/>
       <c r="C15" s="14"/>
       <c r="D15" s="41"/>
@@ -5672,8 +5677,12 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="42">
+        <v>45079</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="41"/>
       <c r="E16" s="10"/>
@@ -5682,10 +5691,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="41">
+        <v>2</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>

--- a/NEW HR/TAPAY, EDWARD.xlsx
+++ b/NEW HR/TAPAY, EDWARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>5/30,31/2023</t>
+  </si>
+  <si>
+    <t>7/15-16/2023</t>
   </si>
 </sst>
 </file>
@@ -612,17 +615,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,6 +632,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,7 +1165,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1208,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1272,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1332,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1398,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1461,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1559,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1618,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1683,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1726,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1801,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1987,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2053,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2111,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2177,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2233,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2308,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2351,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2417,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,9 +2949,9 @@
   <dimension ref="A2:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,16 +2981,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -2999,16 +3002,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3022,16 +3025,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3064,18 +3067,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3122,7 +3125,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3132,7 +3135,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>80.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4512,15 +4515,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
@@ -4528,15 +4535,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -4544,15 +4555,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="42">
+        <v>45047</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
@@ -4560,15 +4575,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45078</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -4576,8 +4595,12 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="42">
+        <v>45108</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
@@ -4586,10 +4609,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="41"/>
+      <c r="H82" s="41">
+        <v>2</v>
+      </c>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
@@ -5313,17 +5340,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5391,16 +5418,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5412,16 +5439,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5435,16 +5462,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5477,18 +5504,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/TAPAY, EDWARD.xlsx
+++ b/NEW HR/TAPAY, EDWARD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>7/15-16/2023</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/24-26/2023</t>
   </si>
 </sst>
 </file>
@@ -615,14 +621,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,9 +641,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,7 +1171,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1214,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1278,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1338,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1404,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1467,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1565,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1624,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1689,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1732,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1807,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1993,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2059,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2117,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2183,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2239,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2314,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2357,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2423,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2479,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,10 +2954,10 @@
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,16 +2987,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3002,16 +3008,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3025,16 +3031,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3067,18 +3073,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3125,7 +3131,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3135,7 +3141,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4598,28 +4604,26 @@
       <c r="A82" s="42">
         <v>45108</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="14"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="41">
-        <v>2</v>
-      </c>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="41"/>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45139</v>
+      </c>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
       <c r="D83" s="41"/>
@@ -5340,17 +5344,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5385,10 +5389,10 @@
   </sheetPr>
   <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5418,16 +5422,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5439,16 +5443,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5462,16 +5466,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5504,18 +5508,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5562,7 +5566,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.7919999999999998</v>
+        <v>1.7919999999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5572,7 +5576,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>20.004000000000001</v>
+        <v>15.004000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5728,8 +5732,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="42">
+        <v>45108</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="41"/>
       <c r="E17" s="10"/>
@@ -5738,26 +5746,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="41"/>
+      <c r="H17" s="41">
+        <v>2</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="42">
+        <v>45139</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="41">
+        <v>3</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="21"/>
       <c r="G18" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="41"/>
+      <c r="H18" s="41">
+        <v>3</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
